--- a/005_excel_workbook/stock_analysis.xlsx
+++ b/005_excel_workbook/stock_analysis.xlsx
@@ -1,40 +1,47 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr date1904="false"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11107"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/e876bdd5f5e425cd/Coursera/Free_R_Tips/free_r_tips/005_excel_workbook/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="2" documentId="11_B6F918AB0FE5509A4113A06AE63C09EA4876BD0D" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7E993199-E72A-6B4E-ACD9-29B069D4CED1}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="26000" windowHeight="17180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="stock_analysis" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="stock_analysis" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
-    <t xml:space="preserve">year</t>
+    <t>year</t>
   </si>
   <si>
-    <t xml:space="preserve">AAPL</t>
+    <t>AMZN</t>
   </si>
   <si>
-    <t xml:space="preserve">GOOG</t>
+    <t>GOOG</t>
   </si>
   <si>
-    <t xml:space="preserve">NFLX</t>
+    <t>TSLA</t>
   </si>
   <si>
-    <t xml:space="preserve">NVDA</t>
+    <t>VOW.F</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -67,39 +74,57 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <xdr:oneCellAnchor xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
-    <xdr:from xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
-      <xdr:col xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">6</xdr:col>
-      <xdr:colOff xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">0</xdr:colOff>
-      <xdr:row xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">2</xdr:row>
-      <xdr:rowOff xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">0</xdr:rowOff>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>63500</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
     </xdr:from>
-    <xdr:ext xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" cx="5486400" cy="3657600"/>
-    <xdr:pic xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
-      <xdr:nvPicPr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
-        <xdr:cNvPr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" id="1" name="Picture 1"/>
-        <xdr:cNvPicPr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
-          <a:picLocks xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" noChangeAspect="1"/>
+    <xdr:ext cx="9525000" cy="6350000"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
-      <xdr:blipFill xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-        </a:blip>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
-      <xdr:spPr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
-          <a:avLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5016500" y="241300"/>
+          <a:ext cx="9525000" cy="6350000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
         </a:prstGeom>
       </xdr:spPr>
     </xdr:pic>
@@ -108,15 +133,15 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="A1:E11" totalsRowCount="0" totalsRowShown="0">
-  <autoFilter ref="A1:E11"/>
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table3" displayName="Table3" ref="A1:E13" totalsRowShown="0">
+  <autoFilter ref="A1:E13" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="5">
-    <tableColumn id="1" name="year"/>
-    <tableColumn id="2" name="AAPL"/>
-    <tableColumn id="3" name="GOOG"/>
-    <tableColumn id="4" name="NFLX"/>
-    <tableColumn id="5" name="NVDA"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="year"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="AMZN"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="GOOG"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="TSLA"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="VOW.F"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -400,14 +425,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="1"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -424,182 +449,216 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="n">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2">
         <v>2010</v>
       </c>
-      <c r="B2" t="n">
-        <v>0.507219218262594</v>
-      </c>
-      <c r="C2" t="n">
-        <v>-0.0523015578624738</v>
-      </c>
-      <c r="D2" t="n">
-        <v>2.28534031413613</v>
-      </c>
-      <c r="E2" t="n">
-        <v>-0.167117309562237</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
+      <c r="B2">
+        <v>0.34428684141688598</v>
+      </c>
+      <c r="C2">
+        <v>-5.2301557862473799E-2</v>
+      </c>
+      <c r="D2">
+        <v>0.114692339891168</v>
+      </c>
+      <c r="E2">
+        <v>0.482895366682567</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3">
         <v>2011</v>
       </c>
-      <c r="B3" t="n">
-        <v>0.228874156480826</v>
-      </c>
-      <c r="C3" t="n">
-        <v>0.0687515454418019</v>
-      </c>
-      <c r="D3" t="n">
-        <v>-0.611624927909731</v>
-      </c>
-      <c r="E3" t="n">
-        <v>-0.123893975617427</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
+      <c r="B3">
+        <v>-6.0362582453791197E-2</v>
+      </c>
+      <c r="C3">
+        <v>6.8751545441801898E-2</v>
+      </c>
+      <c r="D3">
+        <v>7.2877535687453004E-2</v>
+      </c>
+      <c r="E3">
+        <v>-6.2554368153968296E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4">
         <v>2012</v>
       </c>
-      <c r="B4" t="n">
-        <v>0.305585464201222</v>
-      </c>
-      <c r="C4" t="n">
-        <v>0.0630739273333068</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.281699903100775</v>
-      </c>
-      <c r="E4" t="n">
-        <v>-0.121146708245404</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
+      <c r="B4">
+        <v>0.40127350947480001</v>
+      </c>
+      <c r="C4">
+        <v>6.3073927333306801E-2</v>
+      </c>
+      <c r="D4">
+        <v>0.20619658119658099</v>
+      </c>
+      <c r="E4">
+        <v>0.57834484324596702</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5">
         <v>2013</v>
       </c>
-      <c r="B5" t="n">
-        <v>0.047508308718483</v>
-      </c>
-      <c r="C5" t="n">
-        <v>0.549547252702915</v>
-      </c>
-      <c r="D5" t="n">
-        <v>3.00141285726741</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0.286951251403852</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
+      <c r="B5">
+        <v>0.54984264933226601</v>
+      </c>
+      <c r="C5">
+        <v>0.54954725270291505</v>
+      </c>
+      <c r="D5">
+        <v>3.25424208144796</v>
+      </c>
+      <c r="E5">
+        <v>0.20119147859009701</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6">
         <v>2014</v>
       </c>
-      <c r="B6" t="n">
-        <v>0.426283918080775</v>
-      </c>
-      <c r="C6" t="n">
-        <v>-0.0532442271506642</v>
-      </c>
-      <c r="D6" t="n">
-        <v>-0.0584587200943273</v>
-      </c>
-      <c r="E6" t="n">
-        <v>0.286810018902017</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
+      <c r="B6">
+        <v>-0.220167336180699</v>
+      </c>
+      <c r="C6">
+        <v>-5.3244227150664201E-2</v>
+      </c>
+      <c r="D6">
+        <v>0.48174543637574901</v>
+      </c>
+      <c r="E6">
+        <v>-4.3460373599397702E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7">
         <v>2015</v>
       </c>
-      <c r="B7" t="n">
-        <v>-0.0208225230381074</v>
-      </c>
-      <c r="C7" t="n">
-        <v>0.449978979432012</v>
-      </c>
-      <c r="D7" t="n">
-        <v>1.2945491196819</v>
-      </c>
-      <c r="E7" t="n">
-        <v>0.664514367369204</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
+      <c r="B7">
+        <v>1.1907495108850099</v>
+      </c>
+      <c r="C7">
+        <v>0.44997897943201198</v>
+      </c>
+      <c r="D7">
+        <v>9.4386918061191802E-2</v>
+      </c>
+      <c r="E7">
+        <v>-0.18083662384667101</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8">
         <v>2016</v>
       </c>
-      <c r="B8" t="n">
-        <v>0.123843326015503</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.040412998636969</v>
-      </c>
-      <c r="D8" t="n">
-        <v>0.125863988048963</v>
-      </c>
-      <c r="E8" t="n">
-        <v>2.32919626446695</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
+      <c r="B8">
+        <v>0.17720844404478001</v>
+      </c>
+      <c r="C8">
+        <v>4.0412998636968997E-2</v>
+      </c>
+      <c r="D8">
+        <v>-4.3507453639216001E-2</v>
+      </c>
+      <c r="E8">
+        <v>-1.24785438736516E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9">
         <v>2017</v>
       </c>
-      <c r="B9" t="n">
-        <v>0.480425225205342</v>
-      </c>
-      <c r="C9" t="n">
+      <c r="B9">
+        <v>0.55170034282763802</v>
+      </c>
+      <c r="C9">
         <v>0.331060630465427</v>
       </c>
-      <c r="D9" t="n">
-        <v>0.505686799053836</v>
-      </c>
-      <c r="E9" t="n">
-        <v>0.904263218456166</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
+      <c r="D9">
+        <v>0.43485878231390401</v>
+      </c>
+      <c r="E9">
+        <v>0.213622628572704</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10">
         <v>2018</v>
       </c>
-      <c r="B10" t="n">
-        <v>-0.0705434703535565</v>
-      </c>
-      <c r="C10" t="n">
-        <v>-0.0275962582159624</v>
-      </c>
-      <c r="D10" t="n">
-        <v>0.331178170198204</v>
-      </c>
-      <c r="E10" t="n">
-        <v>-0.328454993232759</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
+      <c r="B10">
+        <v>0.26321053512408998</v>
+      </c>
+      <c r="C10">
+        <v>-2.7596258215962399E-2</v>
+      </c>
+      <c r="D10">
+        <v>3.8280268386097799E-2</v>
+      </c>
+      <c r="E10">
+        <v>-0.164303176161262</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11">
         <v>2019</v>
       </c>
-      <c r="B11" t="n">
-        <v>0.873734014543493</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.277563747823808</v>
-      </c>
-      <c r="D11" t="n">
-        <v>0.207912998462034</v>
-      </c>
-      <c r="E11" t="n">
-        <v>0.712137008627944</v>
+      <c r="B11">
+        <v>0.20057432445415799</v>
+      </c>
+      <c r="C11">
+        <v>0.278405173477768</v>
+      </c>
+      <c r="D11">
+        <v>0.34892949016282399</v>
+      </c>
+      <c r="E11">
+        <v>0.31985522524028098</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>2020</v>
+      </c>
+      <c r="B12">
+        <v>0.715970893114521</v>
+      </c>
+      <c r="C12">
+        <v>0.28120407161632899</v>
+      </c>
+      <c r="D12">
+        <v>7.2005062822361801</v>
+      </c>
+      <c r="E12">
+        <v>-6.5978492250213499E-3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>2021</v>
+      </c>
+      <c r="B13">
+        <v>0.11971274920727901</v>
+      </c>
+      <c r="C13">
+        <v>0.70858799419402396</v>
+      </c>
+      <c r="D13">
+        <v>0.458993862203328</v>
+      </c>
+      <c r="E13">
+        <v>0.73127561716409595</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
   <drawing r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId3"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>